--- a/Tables/RDA tables.xlsx
+++ b/Tables/RDA tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94CDD1-DC7A-FF48-BF4E-119E10E4D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCE71-F397-AE49-B506-8FFC7B328AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="500" windowWidth="28060" windowHeight="17360" firstSheet="1" activeTab="7" xr2:uid="{184D8A8D-2E19-164C-8679-BE4748B653FC}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28060" windowHeight="16280" firstSheet="1" activeTab="9" xr2:uid="{184D8A8D-2E19-164C-8679-BE4748B653FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Collinearity" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="430">
   <si>
     <t>do.mgl</t>
   </si>
@@ -1410,20 +1410,44 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>CRO ®</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Quality (WQ) Drivers </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Habitat (H) Drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location (L) Drivers </t>
+    <t>[d] = X1+X2 | X3</t>
+  </si>
+  <si>
+    <t>[e] = X2+X3 | X1</t>
+  </si>
+  <si>
+    <t>[f] = X1+X3 | X2</t>
+  </si>
+  <si>
+    <t>[g] = X1 + X2+ X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCNM 4, 2,1 &amp; 5 </t>
+  </si>
+  <si>
+    <t>SC, hardness, NPOC, temp. DO, nutrients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>WQ + H</t>
+  </si>
+  <si>
+    <t>WQ + L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL </t>
   </si>
   <si>
     <r>
-      <t>Fraction of variation (adj. R</t>
+      <t>Fractions of variation (adj. R</t>
     </r>
     <r>
       <rPr>
@@ -1442,42 +1466,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>WQ</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>WQ | H+L</t>
-  </si>
-  <si>
-    <t>H | WQ+L</t>
-  </si>
-  <si>
-    <t>L | WQ+H</t>
-  </si>
-  <si>
-    <t>[d] = X1+X2 | X3</t>
-  </si>
-  <si>
-    <t>[e] = X2+X3 | X1</t>
-  </si>
-  <si>
-    <t>[f] = X1+X3 | X2</t>
-  </si>
-  <si>
-    <t>[g] = X1 + X2+ X3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCNM 4, 2,1 &amp; 5 </t>
-  </si>
-  <si>
-    <t>SC, hardness, NPOC, temp. DO, nutrients</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1505,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,18 +1532,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1801,11 +1783,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1881,6 +1898,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,17 +1982,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1923,46 +2006,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2280,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E759DBE-9AEA-EA4D-81DE-2E20C199FD19}">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K26"/>
     </sheetView>
   </sheetViews>
@@ -2327,7 +2417,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="55" t="s">
         <v>306</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2359,7 +2449,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2479,7 @@
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2419,7 +2509,7 @@
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2449,7 +2539,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2569,7 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2509,7 +2599,7 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2541,7 +2631,7 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2661,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2691,7 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2721,7 @@
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2751,7 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2691,7 +2781,7 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2721,7 +2811,7 @@
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2751,7 +2841,7 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="58" t="s">
         <v>306</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2783,7 +2873,7 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2903,7 @@
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
@@ -2843,7 +2933,7 @@
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2873,7 +2963,7 @@
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +2993,7 @@
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2935,7 +3025,7 @@
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +3055,7 @@
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +3085,7 @@
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3115,7 @@
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +3145,7 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="9" t="s">
         <v>13</v>
       </c>
@@ -3094,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892A9B6C-927B-D54F-BBFA-725A0EFCC1E1}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3105,12 +3195,11 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
@@ -3139,92 +3228,116 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="52" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+    <row r="2" spans="1:26" ht="35" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
       <c r="B3" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="C3" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>394</v>
+        <v>8</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
       <c r="B5" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="C5" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="32">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
       <c r="B6" s="4" t="s">
         <v>389</v>
       </c>
@@ -3243,292 +3356,871 @@
       <c r="G6" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" ht="52" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="47" t="s">
+      <c r="C7" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="E8" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
       <c r="B9" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="31">
+        <v>0.17</v>
+      </c>
       <c r="H9" s="16">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+        <v>0.41</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="18" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
       <c r="B11" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="16"/>
+      <c r="C11" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="31">
+        <v>0.17</v>
+      </c>
       <c r="H11" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
       <c r="B12" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="50" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
       <c r="B13" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
+      <c r="C13" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0.317</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0.15465999999999999</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="51">
+        <v>0.16167000000000001</v>
+      </c>
+      <c r="H13" s="52">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="Q14" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L15" t="s">
+      <c r="I13" s="53">
+        <v>0.34266999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="L14" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="M14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N15" t="s">
-        <v>418</v>
-      </c>
-      <c r="O15" t="s">
-        <v>419</v>
-      </c>
-      <c r="P15" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>422</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="N14" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="74"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="S15" t="s">
+      <c r="O15" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="T15" t="s">
+      <c r="P15" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="U15" t="s">
+      <c r="Q15" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="V15" t="s">
+      <c r="R15" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="S15" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="W15" t="s">
+      <c r="T15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
-      <c r="L16" t="s">
+    <row r="16" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="L16" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="M16" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="M17" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="L18" t="s">
-        <v>417</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
-      <c r="M19" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
-      <c r="L20" t="s">
+      <c r="M16" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="40">
+        <v>2.367E-2</v>
+      </c>
+      <c r="O16" s="40">
+        <v>0.1047</v>
+      </c>
+      <c r="P16" s="40">
+        <v>6.1339999999999999E-2</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0.11677</v>
+      </c>
+      <c r="R16" s="81">
+        <v>0</v>
+      </c>
+      <c r="S16" s="81">
+        <v>4.811E-2</v>
+      </c>
+      <c r="T16" s="41">
+        <v>0.11912</v>
+      </c>
+      <c r="U16" s="41">
+        <v>0.53818999999999995</v>
+      </c>
+      <c r="V16" s="49"/>
+      <c r="W16" s="48">
+        <f>SUM(N16:U16)</f>
+        <v>1.0119</v>
+      </c>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.10672</v>
+      </c>
+      <c r="O17" s="43">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P17" s="43">
+        <v>5.9060000000000001E-2</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>0</v>
+      </c>
+      <c r="R17" s="82">
+        <v>0</v>
+      </c>
+      <c r="S17" s="82">
+        <v>0</v>
+      </c>
+      <c r="T17" s="44">
+        <v>0.17</v>
+      </c>
+      <c r="U17" s="44">
+        <v>0.63</v>
+      </c>
+      <c r="V17" s="49"/>
+      <c r="W17" s="48">
+        <f>SUM(N17:U17)</f>
+        <v>1.10778</v>
+      </c>
+      <c r="X17">
+        <v>0.10672</v>
+      </c>
+      <c r="Y17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z17">
+        <v>5.9060000000000001E-2</v>
+      </c>
+      <c r="AA17">
+        <v>-5.4140000000000001E-2</v>
+      </c>
+      <c r="AB17">
+        <v>-3.0269999999999998E-2</v>
+      </c>
+      <c r="AC17">
+        <v>-1.8180000000000002E-2</v>
+      </c>
+      <c r="AD17">
+        <v>0.16886000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0.62851999999999997</v>
+      </c>
+      <c r="AF17">
+        <f>SUM(X17:AE17)</f>
+        <v>1.00257</v>
+      </c>
+      <c r="AG17">
+        <f>SUM(X17:Z17)+SUM(AD17:AF17)</f>
+        <v>2.1077300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="L18" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="40">
+        <v>2.665E-2</v>
+      </c>
+      <c r="O18" s="40">
+        <v>0</v>
+      </c>
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>0</v>
+      </c>
+      <c r="R18" s="81">
+        <v>2.5590000000000002E-2</v>
+      </c>
+      <c r="S18" s="81">
+        <v>0</v>
+      </c>
+      <c r="T18" s="41">
+        <v>0.17201</v>
+      </c>
+      <c r="U18" s="41">
+        <v>0.84977999999999998</v>
+      </c>
+      <c r="V18" s="49"/>
+      <c r="W18" s="48">
+        <f>SUM(N18:U18)</f>
+        <v>1.07403</v>
+      </c>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="43">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="82">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S19" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="44">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="V19" s="49"/>
+      <c r="W19" s="48">
+        <f>SUM(N19:U19)</f>
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="L20" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="M21" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
-      <c r="L22" t="s">
+      <c r="M20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="40">
+        <v>0</v>
+      </c>
+      <c r="O20" s="40">
+        <v>0.10034999999999999</v>
+      </c>
+      <c r="P20" s="40">
+        <v>9.5909999999999995E-2</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0.1099</v>
+      </c>
+      <c r="R20" s="81">
+        <v>0</v>
+      </c>
+      <c r="S20" s="81">
+        <v>0.11047</v>
+      </c>
+      <c r="T20" s="41">
+        <v>0.13891999999999999</v>
+      </c>
+      <c r="U20" s="41">
+        <v>0.52302999999999999</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="48">
+        <f>SUM(N20:U20)</f>
+        <v>1.0785800000000001</v>
+      </c>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="O21" s="43">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="P21" s="43">
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="R21" s="82">
+        <v>-1.42E-3</v>
+      </c>
+      <c r="S21" s="82">
+        <v>7.5870000000000007E-2</v>
+      </c>
+      <c r="T21" s="44">
+        <v>7.4020000000000002E-2</v>
+      </c>
+      <c r="U21" s="44">
+        <v>0.82582999999999995</v>
+      </c>
+      <c r="V21" s="49"/>
+      <c r="W21" s="48">
+        <f>SUM(N21:U21)</f>
+        <v>1.0066999999999999</v>
+      </c>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="L22" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
-      <c r="M23" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="54"/>
-      <c r="L24" t="s">
+      <c r="M22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="40">
+        <v>5.9150000000000001E-2</v>
+      </c>
+      <c r="O22" s="40">
+        <v>0</v>
+      </c>
+      <c r="P22" s="40">
+        <v>7.4940000000000007E-2</v>
+      </c>
+      <c r="Q22" s="40">
+        <v>0</v>
+      </c>
+      <c r="R22" s="81">
+        <v>3.4979999999999997E-2</v>
+      </c>
+      <c r="S22" s="81">
+        <v>2.5159999999999998E-2</v>
+      </c>
+      <c r="T22" s="41">
+        <v>0.13163</v>
+      </c>
+      <c r="U22" s="41">
+        <v>0.70174000000000003</v>
+      </c>
+      <c r="V22" s="49"/>
+      <c r="W22" s="48">
+        <f>SUM(N22:U22)</f>
+        <v>1.0276000000000001</v>
+      </c>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="V23" s="49"/>
+      <c r="W23" s="48">
+        <f>SUM(N23:U23)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="L24" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="M25" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
+      <c r="M24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="40">
+        <v>0</v>
+      </c>
+      <c r="O24" s="40">
+        <v>0</v>
+      </c>
+      <c r="P24" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>2.5489999999999999E-2</v>
+      </c>
+      <c r="R24" s="81">
+        <v>4.8550000000000003E-2</v>
+      </c>
+      <c r="S24" s="81">
+        <v>0</v>
+      </c>
+      <c r="T24" s="41">
+        <v>0.28588000000000002</v>
+      </c>
+      <c r="U24" s="41">
+        <v>0.79898999999999998</v>
+      </c>
+      <c r="V24" s="49"/>
+      <c r="W24" s="48">
+        <f>SUM(N24:U24)</f>
+        <v>1.1589100000000001</v>
+      </c>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0</v>
+      </c>
+      <c r="O25" s="43">
+        <v>2.094E-2</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0.16767000000000001</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>0.11221</v>
+      </c>
+      <c r="R25" s="82">
+        <v>0</v>
+      </c>
+      <c r="S25" s="82">
+        <v>0</v>
+      </c>
+      <c r="T25" s="44">
+        <v>0.11018</v>
+      </c>
+      <c r="U25" s="44">
+        <v>0.7228</v>
+      </c>
+      <c r="V25" s="49"/>
+      <c r="W25" s="48">
+        <f>SUM(N25:U25)</f>
+        <v>1.1337999999999999</v>
+      </c>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="L26" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="40">
+        <v>0.25472</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="40">
+        <v>9.9849999999999994E-2</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="81">
+        <v>7.9820000000000002E-2</v>
+      </c>
+      <c r="T26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="41">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="V26" s="49"/>
+      <c r="W26" s="48">
+        <f>SUM(N26:U26)</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="L27" s="78"/>
+      <c r="M27" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0.311</v>
+      </c>
+      <c r="O27" s="43">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="P27" s="43">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Q27" s="43">
+        <v>0</v>
+      </c>
+      <c r="R27" s="82">
+        <v>0</v>
+      </c>
+      <c r="S27" s="82">
+        <v>0</v>
+      </c>
+      <c r="T27" s="44">
+        <v>0.35</v>
+      </c>
+      <c r="U27" s="44">
+        <v>0.42</v>
+      </c>
+      <c r="V27" s="49"/>
+      <c r="W27" s="48">
+        <f>SUM(N27:U27)</f>
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="L28" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="40">
+        <v>0.11111</v>
+      </c>
+      <c r="O28" s="40">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="P28" s="40">
+        <v>7.4910000000000004E-2</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>4.2970000000000001E-2</v>
+      </c>
+      <c r="R28" s="81">
+        <v>2.6190000000000001E-2</v>
+      </c>
+      <c r="S28" s="81">
+        <v>0.10072</v>
+      </c>
+      <c r="T28" s="41">
+        <v>0.11774</v>
+      </c>
+      <c r="U28" s="41">
+        <v>0.48675000000000002</v>
+      </c>
+      <c r="V28" s="49"/>
+      <c r="W28" s="48">
+        <f>SUM(N28:U28)</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="L29" s="79"/>
+      <c r="M29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="46">
+        <v>4.7550000000000002E-2</v>
+      </c>
+      <c r="O29" s="46">
+        <v>2.98E-2</v>
+      </c>
+      <c r="P29" s="46">
+        <v>9.2810000000000004E-2</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>4.4510000000000001E-2</v>
+      </c>
+      <c r="R29" s="46">
+        <v>2.206E-2</v>
+      </c>
+      <c r="S29" s="46">
+        <v>0.10029</v>
+      </c>
+      <c r="T29" s="47">
+        <v>0.12751999999999999</v>
+      </c>
+      <c r="U29" s="47">
+        <v>0.53547</v>
+      </c>
+      <c r="V29" s="49"/>
+      <c r="W29" s="48">
+        <f>SUM(N29:U29)</f>
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q14:W14"/>
+  <mergeCells count="18">
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -26308,8 +27000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BE49AE-3498-0A44-BE2A-144BE784F150}">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="X100" sqref="X100"/>
     </sheetView>
@@ -34573,14 +35265,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEE1A4-0CCE-FC4D-BE20-60521ACC78B7}">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA13" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="L1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
-      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34610,10 +35302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -34634,54 +35326,54 @@
       <c r="H1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="65" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
     </row>
     <row r="2" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="2" t="s">
         <v>367</v>
       </c>
@@ -34700,8 +35392,8 @@
       <c r="H2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="40"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="66"/>
       <c r="N2" t="s">
         <v>369</v>
       </c>
@@ -34800,7 +35492,7 @@
       <c r="L3" t="s">
         <v>412</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="27" t="s">
         <v>372</v>
       </c>
       <c r="N3">
@@ -34892,7 +35584,7 @@
       <c r="L4" t="s">
         <v>413</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="27" t="s">
         <v>373</v>
       </c>
       <c r="N4">
@@ -34993,7 +35685,7 @@
       <c r="L5" t="s">
         <v>414</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N5">
@@ -35523,7 +36215,7 @@
       <c r="J12" s="6">
         <v>0.63</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="28" t="s">
         <v>380</v>
       </c>
       <c r="O12">
@@ -35600,7 +36292,7 @@
       <c r="J13" s="6">
         <v>0.83</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="28" t="s">
         <v>381</v>
       </c>
       <c r="O13">
@@ -35683,7 +36375,7 @@
       <c r="J14" s="6">
         <v>0.42</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="M14" s="28" t="s">
         <v>382</v>
       </c>
       <c r="O14">
@@ -35766,8 +36458,8 @@
       <c r="J15" s="6">
         <v>0.72</v>
       </c>
-      <c r="M15" s="43" t="s">
-        <v>428</v>
+      <c r="M15" s="28" t="s">
+        <v>417</v>
       </c>
       <c r="O15">
         <v>-5.4140000000000001E-2</v>
@@ -35843,8 +36535,8 @@
       <c r="J16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="43" t="s">
-        <v>429</v>
+      <c r="M16" s="28" t="s">
+        <v>418</v>
       </c>
       <c r="O16">
         <v>-3.0269999999999998E-2</v>
@@ -35896,8 +36588,8 @@
       </c>
     </row>
     <row r="17" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M17" s="43" t="s">
-        <v>430</v>
+      <c r="M17" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="O17">
         <v>-1.8180000000000002E-2</v>
@@ -35943,8 +36635,8 @@
       </c>
     </row>
     <row r="18" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M18" s="43" t="s">
-        <v>431</v>
+      <c r="M18" s="28" t="s">
+        <v>420</v>
       </c>
       <c r="O18">
         <v>0.16886000000000001</v>
@@ -35990,7 +36682,7 @@
       </c>
     </row>
     <row r="19" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="28" t="s">
         <v>383</v>
       </c>
       <c r="O19">
@@ -36043,12 +36735,12 @@
       </c>
     </row>
     <row r="24" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="28" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="25" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="27" t="s">
         <v>385</v>
       </c>
     </row>
@@ -36058,7 +36750,7 @@
       </c>
     </row>
     <row r="29" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="27" t="s">
         <v>372</v>
       </c>
       <c r="N29">
@@ -36126,7 +36818,7 @@
       </c>
     </row>
     <row r="30" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M30" s="42" t="s">
+      <c r="M30" s="27" t="s">
         <v>373</v>
       </c>
       <c r="N30">
@@ -36185,7 +36877,7 @@
       </c>
     </row>
     <row r="31" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M31" s="42" t="s">
+      <c r="M31" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N31">
@@ -36503,7 +37195,7 @@
       </c>
     </row>
     <row r="38" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M38" s="43" t="s">
+      <c r="M38" s="28" t="s">
         <v>380</v>
       </c>
       <c r="O38">
@@ -36550,7 +37242,7 @@
       </c>
     </row>
     <row r="39" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="28" t="s">
         <v>381</v>
       </c>
       <c r="O39">
@@ -36591,7 +37283,7 @@
       </c>
     </row>
     <row r="40" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M40" s="43" t="s">
+      <c r="M40" s="28" t="s">
         <v>382</v>
       </c>
       <c r="O40">
@@ -36638,8 +37330,8 @@
       </c>
     </row>
     <row r="41" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M41" s="43" t="s">
-        <v>428</v>
+      <c r="M41" s="28" t="s">
+        <v>417</v>
       </c>
       <c r="O41">
         <v>0.11677</v>
@@ -36679,8 +37371,8 @@
       </c>
     </row>
     <row r="42" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M42" s="43" t="s">
-        <v>429</v>
+      <c r="M42" s="28" t="s">
+        <v>418</v>
       </c>
       <c r="O42">
         <v>-1.1900000000000001E-2</v>
@@ -36720,8 +37412,8 @@
       </c>
     </row>
     <row r="43" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M43" s="43" t="s">
-        <v>430</v>
+      <c r="M43" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="O43">
         <v>4.811E-2</v>
@@ -36767,8 +37459,8 @@
       </c>
     </row>
     <row r="44" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M44" s="43" t="s">
-        <v>431</v>
+      <c r="M44" s="28" t="s">
+        <v>420</v>
       </c>
       <c r="O44">
         <v>0.11912</v>
@@ -36808,7 +37500,7 @@
       </c>
     </row>
     <row r="45" spans="13:34" x14ac:dyDescent="0.2">
-      <c r="M45" s="43" t="s">
+      <c r="M45" s="28" t="s">
         <v>383</v>
       </c>
       <c r="O45">
@@ -36854,19 +37546,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="13:34" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <f>SUM(O38:O45)</f>
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <f>SUM(R38:R45)</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="U47">
+        <f>SUM(U38:U45)</f>
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="X47">
+        <f>SUM(X38:X45)</f>
+        <v>1.0000100000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36923,7 +37633,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="69" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -36952,7 +37662,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="9" t="s">
         <v>313</v>
       </c>
@@ -36979,7 +37689,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="1" t="s">
         <v>306</v>
       </c>
@@ -37006,7 +37716,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="9" t="s">
         <v>314</v>
       </c>
@@ -37033,7 +37743,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="4" t="s">
         <v>389</v>
       </c>
@@ -37052,7 +37762,7 @@
       <c r="G6" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="58" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -37060,7 +37770,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="20" t="s">
         <v>314</v>
       </c>
@@ -37079,13 +37789,13 @@
       <c r="G7" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="22" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -37100,7 +37810,7 @@
       <c r="E8" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="56" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -37114,7 +37824,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="9" t="s">
         <v>314</v>
       </c>
@@ -37127,7 +37837,7 @@
       <c r="E9" s="16">
         <v>5</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
         <v>318</v>
@@ -37137,20 +37847,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="58" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -37164,18 +37874,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="9" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="16">
         <v>6</v>
       </c>
@@ -37187,7 +37897,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="4" t="s">
         <v>389</v>
       </c>
@@ -37200,7 +37910,7 @@
       <c r="E12" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="58" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -37214,7 +37924,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="9" t="s">
         <v>314</v>
       </c>
@@ -37227,7 +37937,7 @@
       <c r="E13" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="16" t="s">
         <v>317</v>
       </c>
